--- a/Documentation/Working_Documents/Birch_Mini_Joystick-A/Birch_Mini_Joystick-A_BOM.xlsx
+++ b/Documentation/Working_Documents/Birch_Mini_Joystick-A/Birch_Mini_Joystick-A_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 22-05 OpenAT Joysticks/Designs/Active Projects/Sliding Analog Thumbstick/Birch_Mini_Joystick/Documentation/Working_Documents/Birch Mini Joystick - A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{FFCF63BE-D2B6-4D57-AB99-D42729B3DC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66180B91-BBC2-4720-94AC-9667A52EDD15}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="8_{FFCF63BE-D2B6-4D57-AB99-D42729B3DC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04453820-84CC-47E2-B6AC-4351D742784B}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="390" windowWidth="25290" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="95">
   <si>
     <t>Unit Cost</t>
   </si>
@@ -353,16 +353,19 @@
       <t>V0.2</t>
     </r>
   </si>
+  <si>
+    <t>M2 x 6 mm Machine Screws</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,7 +655,7 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -663,45 +666,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -731,7 +734,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{12B3ECAA-0516-4761-BE9A-53F70E3829B9}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1009,26 +1014,26 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="58.140625" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="12" width="19.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="89.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.5">
+    <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.65">
       <c r="A1" s="41" t="s">
         <v>88</v>
       </c>
@@ -1047,7 +1052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1">
+    <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>93</v>
       </c>
@@ -1071,13 +1076,13 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" thickBot="1">
+    <row r="3" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="45"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1119,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -1150,7 +1155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -1186,7 +1191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -1222,7 +1227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>63</v>
       </c>
@@ -1258,7 +1263,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>69</v>
       </c>
@@ -1294,9 +1299,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1330,7 +1335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>79</v>
       </c>
@@ -1366,7 +1371,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>62</v>
       </c>
@@ -1438,7 +1443,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -1472,13 +1477,13 @@
       </c>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="17"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="46" t="s">
         <v>19</v>
       </c>
@@ -1492,7 +1497,7 @@
       <c r="I16" s="13"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1">
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1525,7 +1530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>91</v>
       </c>
@@ -1553,7 +1558,7 @@
         <v>0.3725</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>92</v>
       </c>
@@ -1581,7 +1586,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -1610,7 +1615,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>35</v>
       </c>
@@ -1639,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>55</v>
       </c>
@@ -1668,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>56</v>
       </c>
@@ -1697,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -1726,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -1755,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>59</v>
       </c>
@@ -1784,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1">
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
       <c r="I27" s="12">
         <f t="shared" si="4"/>
@@ -1795,13 +1800,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" thickBot="1">
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="49"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" thickBot="1">
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
         <v>6</v>
       </c>
@@ -1820,10 +1825,10 @@
       <c r="J29" s="24"/>
       <c r="K29" s="25"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" thickBot="1">
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="46" t="s">
         <v>27</v>
       </c>
@@ -1841,32 +1846,32 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>75</v>
       </c>
@@ -1874,8 +1879,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75" thickBot="1"/>
-    <row r="39" spans="1:14" ht="15.75" thickBot="1">
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="42" t="s">
         <v>28</v>
       </c>
@@ -1893,7 +1898,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" thickBot="1">
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>6</v>
       </c>
@@ -1928,7 +1933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>45</v>
       </c>
@@ -1964,7 +1969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>46</v>
       </c>
@@ -2000,7 +2005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -2036,7 +2041,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>49</v>
       </c>
@@ -2072,7 +2077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -2108,7 +2113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>52</v>
       </c>
@@ -2144,7 +2149,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>64</v>
       </c>
@@ -2180,7 +2185,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>65</v>
       </c>
@@ -2258,24 +2263,24 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="58.140625" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.109375" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="16" max="16" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="14" width="19.109375" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="16" max="16" width="89.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34.5">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.65">
       <c r="A1" s="41" t="s">
         <v>88</v>
       </c>
@@ -2306,7 +2311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="19.5" thickBot="1">
+    <row r="2" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -2342,13 +2347,13 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1">
+    <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="45"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2389,7 +2394,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -2430,7 +2435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -2471,7 +2476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -2512,7 +2517,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>63</v>
       </c>
@@ -2553,7 +2558,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>69</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -2635,7 +2640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>79</v>
       </c>
@@ -2676,7 +2681,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -2717,7 +2722,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>62</v>
       </c>
@@ -2758,7 +2763,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -2798,14 +2803,14 @@
       <c r="L14" s="18"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H15" s="17"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="46" t="s">
         <v>19</v>
       </c>
@@ -2820,7 +2825,7 @@
       <c r="J16" s="13"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2855,7 +2860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>81</v>
       </c>
@@ -2884,7 +2889,7 @@
       </c>
       <c r="L18" s="18"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>82</v>
       </c>
@@ -2913,7 +2918,7 @@
       </c>
       <c r="L19" s="18"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>34</v>
       </c>
@@ -2943,7 +2948,7 @@
       </c>
       <c r="L20" s="18"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>35</v>
       </c>
@@ -2973,7 +2978,7 @@
       </c>
       <c r="L21" s="18"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>55</v>
       </c>
@@ -3003,7 +3008,7 @@
       </c>
       <c r="L22" s="18"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>56</v>
       </c>
@@ -3033,7 +3038,7 @@
       </c>
       <c r="L23" s="18"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>57</v>
       </c>
@@ -3063,7 +3068,7 @@
       </c>
       <c r="L24" s="18"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>58</v>
       </c>
@@ -3093,7 +3098,7 @@
       </c>
       <c r="L25" s="18"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>59</v>
       </c>
@@ -3123,7 +3128,7 @@
       </c>
       <c r="L26" s="18"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1">
+    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10"/>
       <c r="J27" s="12">
         <f t="shared" si="5"/>
@@ -3135,13 +3140,13 @@
       </c>
       <c r="L27" s="18"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1">
+    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="49"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1">
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
         <v>6</v>
       </c>
@@ -3162,10 +3167,10 @@
       <c r="L29" s="24"/>
       <c r="M29" s="25"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1">
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1">
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="46" t="s">
         <v>27</v>
       </c>
@@ -3185,32 +3190,32 @@
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>75</v>
       </c>
@@ -3218,8 +3223,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1">
+    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="42" t="s">
         <v>28</v>
       </c>
@@ -3239,7 +3244,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16" ht="15.75" thickBot="1">
+    <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>6</v>
       </c>
@@ -3276,7 +3281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>45</v>
       </c>
@@ -3313,7 +3318,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>46</v>
       </c>
@@ -3350,7 +3355,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -3387,7 +3392,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>49</v>
       </c>
@@ -3424,7 +3429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -3461,7 +3466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>52</v>
       </c>
@@ -3498,7 +3503,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>64</v>
       </c>
@@ -3535,7 +3540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>65</v>
       </c>
@@ -3613,24 +3618,24 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="58.140625" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.109375" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="14" width="19.140625" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="16" max="16" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="14" width="19.109375" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="16" max="16" width="89.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34.5">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.65">
       <c r="A1" s="41" t="s">
         <v>88</v>
       </c>
@@ -3661,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="19.5" thickBot="1">
+    <row r="2" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -3697,13 +3702,13 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1">
+    <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="45"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -3744,7 +3749,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -3785,7 +3790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -3826,7 +3831,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -3867,7 +3872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>63</v>
       </c>
@@ -3908,7 +3913,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>69</v>
       </c>
@@ -3949,7 +3954,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -3990,7 +3995,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>65</v>
       </c>
@@ -4031,7 +4036,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>62</v>
       </c>
@@ -4072,7 +4077,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>73</v>
       </c>
@@ -4112,14 +4117,14 @@
       <c r="L13" s="18"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1">
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H14" s="17"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="46" t="s">
         <v>19</v>
       </c>
@@ -4134,7 +4139,7 @@
       <c r="J15" s="13"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4169,7 +4174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>81</v>
       </c>
@@ -4198,7 +4203,7 @@
       </c>
       <c r="L17" s="18"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>82</v>
       </c>
@@ -4227,7 +4232,7 @@
       </c>
       <c r="L18" s="18"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -4257,7 +4262,7 @@
       </c>
       <c r="L19" s="18"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -4287,7 +4292,7 @@
       </c>
       <c r="L20" s="18"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>55</v>
       </c>
@@ -4317,7 +4322,7 @@
       </c>
       <c r="L21" s="18"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -4347,7 +4352,7 @@
       </c>
       <c r="L22" s="18"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>57</v>
       </c>
@@ -4377,7 +4382,7 @@
       </c>
       <c r="L23" s="18"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>58</v>
       </c>
@@ -4407,7 +4412,7 @@
       </c>
       <c r="L24" s="18"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>59</v>
       </c>
@@ -4437,7 +4442,7 @@
       </c>
       <c r="L25" s="18"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1">
+    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10"/>
       <c r="J26" s="12">
         <f t="shared" si="8"/>
@@ -4449,13 +4454,13 @@
       </c>
       <c r="L26" s="18"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1">
+    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="49"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1">
+    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>6</v>
       </c>
@@ -4476,10 +4481,10 @@
       <c r="L28" s="24"/>
       <c r="M28" s="25"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1">
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1">
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="46" t="s">
         <v>27</v>
       </c>
@@ -4499,32 +4504,32 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>75</v>
       </c>
@@ -4532,8 +4537,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="38" spans="1:16" ht="15.75" thickBot="1">
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="42" t="s">
         <v>28</v>
       </c>
@@ -4553,7 +4558,7 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" thickBot="1">
+    <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>6</v>
       </c>
@@ -4590,7 +4595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>45</v>
       </c>
@@ -4627,7 +4632,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>46</v>
       </c>
@@ -4664,7 +4669,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -4701,7 +4706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>49</v>
       </c>
@@ -4738,7 +4743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>52</v>
       </c>
@@ -4775,7 +4780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -4812,7 +4817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>64</v>
       </c>
@@ -4849,7 +4854,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>65</v>
       </c>
@@ -4919,8 +4924,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a38268523a36e7284a4a2063ac01106c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="890835d1009e2f2eb5b198bf07e33774" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e0d9d996845e2cef65e12e895c4c91e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97eb945ec045b4d52e9ff03a8a8db852" ns2:_="" ns3:_="">
     <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
     <xsd:import namespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
     <xsd:element name="properties">
@@ -4943,6 +4959,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5013,6 +5030,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" elementFormDefault="qualified">
@@ -5155,17 +5177,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5176,7 +5187,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{309F0FC9-8356-4C94-8835-D8F7030D45B1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12ABB587-DEEB-4FD9-A4D8-7882E369C26F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -5194,23 +5222,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
   <ds:schemaRefs>
